--- a/biology/Botanique/Victoria_cruziana/Victoria_cruziana.xlsx
+++ b/biology/Botanique/Victoria_cruziana/Victoria_cruziana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Victoria cruziana, nénuphar tropical géant originaire d'Amérique du Sud (bassins des rivières Paraná et Paraguay)[1], est une espèce de la famille des Nymphaeaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Victoria cruziana, nénuphar tropical géant originaire d'Amérique du Sud (bassins des rivières Paraná et Paraguay), est une espèce de la famille des Nymphaeaceae.
 Partie intégrante de l'écosystème riche des zones humides du Pantanal et des Étangs de l'Iberá, il s'intègre dans les réservoirs et couvre de vastes zones d'eau stagnante.
 </t>
         </is>
@@ -514,15 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Feuilles
-Ses grandes feuilles circulaires, de dimension légèrement inférieure à celle de Victoria amazonica, flottent à la surface de l'eau et peuvent atteindre 2 à 3 mètres de diamètre et 6 kg. Elles sont pourvues d'un large rebord de plusieurs centimètres et couvertes d'un duvet semblable à celui d'une pêche. Le dessous des feuilles est teinté de pourpre et la partie immergée est couverte d'épines coriaces qui la protègent des prédateurs. Elles sont renforcées par un tissu épais rempli d'air pour assurer la flottabilité.
-Fleurs
-Ses énormes fleurs pouvant atteindre 30 cm de diamètre sont éphémères et ne fleurissent que durant 2 nuits.
-Le soir de la première ouverture, le crépuscule laisse découvrir une fleur blanche avec une centaine de pétales arrondis et une odeur caractéristique semblable à celle de l'ananas. Une réaction thermochimique élève la température de la fleur jusqu'à 10 °C au-delà de la température de l'air ambiant afin de favoriser la diffusion de cette odeur[2]. Cela attire des coléoptères qui sont piégés lorsque la fleur se referme à l'aube. La fermeture prend environ 20 minutes.
-La deuxième nuit, la fleur devient rose voire rouge. Les insectes piégés la veille sont libérés au coucher du soleil et, couvert de pollen, vont fertiliser une autre fleur.
-À l'aube du troisième jour, la fleur se referme et s'immerge.
-Fruits
-Le fruit mûrit en immersion. C'est une baie globuleuse, brune, couverte d'épines, qui contient de nombreuses graines ovales, noirâtres ou verdâtres.
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses grandes feuilles circulaires, de dimension légèrement inférieure à celle de Victoria amazonica, flottent à la surface de l'eau et peuvent atteindre 2 à 3 mètres de diamètre et 6 kg. Elles sont pourvues d'un large rebord de plusieurs centimètres et couvertes d'un duvet semblable à celui d'une pêche. Le dessous des feuilles est teinté de pourpre et la partie immergée est couverte d'épines coriaces qui la protègent des prédateurs. Elles sont renforcées par un tissu épais rempli d'air pour assurer la flottabilité.
 </t>
         </is>
       </c>
@@ -548,40 +558,429 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses énormes fleurs pouvant atteindre 30 cm de diamètre sont éphémères et ne fleurissent que durant 2 nuits.
+Le soir de la première ouverture, le crépuscule laisse découvrir une fleur blanche avec une centaine de pétales arrondis et une odeur caractéristique semblable à celle de l'ananas. Une réaction thermochimique élève la température de la fleur jusqu'à 10 °C au-delà de la température de l'air ambiant afin de favoriser la diffusion de cette odeur. Cela attire des coléoptères qui sont piégés lorsque la fleur se referme à l'aube. La fermeture prend environ 20 minutes.
+La deuxième nuit, la fleur devient rose voire rouge. Les insectes piégés la veille sont libérés au coucher du soleil et, couvert de pollen, vont fertiliser une autre fleur.
+À l'aube du troisième jour, la fleur se referme et s'immerge.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Victoria_cruziana</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victoria_cruziana</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit mûrit en immersion. C'est une baie globuleuse, brune, couverte d'épines, qui contient de nombreuses graines ovales, noirâtres ou verdâtres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Victoria_cruziana</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victoria_cruziana</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Où voir Victoria cruziana</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Allemagne
-Jardin Botanique de la ville de Brunswick, Allemagne
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Allemagne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Jardin Botanique de la ville de Brunswick, Allemagne
 Jardin Botanique de la ville de Iéna
-Jardin Botanique de la ville de Wilhelmshaven
- Autriche
-Jardin Botanique de la ville de Linz
- Belgique
-Jardin botanique de Meise
- France
-Jardins du Domaine de Chaumont sur Loire
+Jardin Botanique de la ville de Wilhelmshaven</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Victoria_cruziana</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victoria_cruziana</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Où voir Victoria cruziana</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Autriche</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Jardin Botanique de la ville de Linz</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Victoria_cruziana</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victoria_cruziana</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Où voir Victoria cruziana</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Belgique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Jardin botanique de Meise</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Victoria_cruziana</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victoria_cruziana</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Où voir Victoria cruziana</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Jardins du Domaine de Chaumont sur Loire
 Jardin des Établissements Latour-Marliac au Temple sur Lot
 Jardin botanique du Montet à Nancy
 Jardin des plantes de Caen
 Parc du Moulin à Tan à Sens
 Jardin botanique du Parc de la Tête d'or à Lyon
 Le Potager Extraordinaire à La Mothe-Achard
-Jardin botanique du Val Rahmeh à Menton, seul jardin en France à présenter l'espèce en bassin de plein air
- Maurice
-Jardin botanique de Pamplemousses
- Maroc
-Jardin exotique Crocoparc_Agadir
- Norvège
-Jardin botanique d'Oslo
- Portugal
-Jardin botanique de Coimbra
- Royaume-Uni
-Jardins botaniques royaux de Kew
- Italie
-Jardins botaniques de la Villa Taranto (it) à Verbania</t>
+Jardin botanique du Val Rahmeh à Menton, seul jardin en France à présenter l'espèce en bassin de plein air</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Victoria_cruziana</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victoria_cruziana</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Où voir Victoria cruziana</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Maurice</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Jardin botanique de Pamplemousses</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Victoria_cruziana</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victoria_cruziana</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Où voir Victoria cruziana</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Maroc</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Jardin exotique Crocoparc_Agadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Victoria_cruziana</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victoria_cruziana</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Où voir Victoria cruziana</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Norvège</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jardin botanique d'Oslo
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Victoria_cruziana</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victoria_cruziana</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Où voir Victoria cruziana</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Portugal</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Jardin botanique de Coimbra</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Victoria_cruziana</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victoria_cruziana</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Où voir Victoria cruziana</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Jardins botaniques royaux de Kew</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Victoria_cruziana</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victoria_cruziana</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Où voir Victoria cruziana</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Jardins botaniques de la Villa Taranto (it) à Verbania</t>
         </is>
       </c>
     </row>
